--- a/artfynd/A 10563-2022.xlsx
+++ b/artfynd/A 10563-2022.xlsx
@@ -17676,10 +17676,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111473568</v>
+        <v>111474929</v>
       </c>
       <c r="B151" t="n">
-        <v>78579</v>
+        <v>89423</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -17692,38 +17692,38 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>2081</v>
+        <v>5432</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="P151" t="inlineStr">
         <is>
-          <t>kurravaara ravinen, T lm</t>
+          <t>kurra, T lm</t>
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>723696.4827296173</v>
+        <v>723266.0405644479</v>
       </c>
       <c r="R151" t="n">
-        <v>7544132.847775052</v>
+        <v>7544227.158111322</v>
       </c>
       <c r="S151" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T151" t="inlineStr">
         <is>
@@ -17789,7 +17789,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111475500</v>
+        <v>111474891</v>
       </c>
       <c r="B152" t="n">
         <v>90087</v>
@@ -17830,10 +17830,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>723181.0483288103</v>
+        <v>723266.0405644479</v>
       </c>
       <c r="R152" t="n">
-        <v>7544299.950535267</v>
+        <v>7544227.158111322</v>
       </c>
       <c r="S152" t="n">
         <v>10</v>
@@ -17902,10 +17902,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111474170</v>
+        <v>111474396</v>
       </c>
       <c r="B153" t="n">
-        <v>95674</v>
+        <v>89423</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -17914,25 +17914,25 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>222741</v>
+        <v>5432</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I153" t="inlineStr"/>
@@ -18015,10 +18015,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111474396</v>
+        <v>111473568</v>
       </c>
       <c r="B154" t="n">
-        <v>89423</v>
+        <v>78579</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -18031,38 +18031,38 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>5432</v>
+        <v>2081</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="P154" t="inlineStr">
         <is>
-          <t>kurra, T lm</t>
+          <t>kurravaara ravinen, T lm</t>
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>723316.8847442043</v>
+        <v>723696.4827296173</v>
       </c>
       <c r="R154" t="n">
-        <v>7544194.885817799</v>
+        <v>7544132.847775052</v>
       </c>
       <c r="S154" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T154" t="inlineStr">
         <is>
@@ -18128,7 +18128,7 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>111474891</v>
+        <v>111475500</v>
       </c>
       <c r="B155" t="n">
         <v>90087</v>
@@ -18169,10 +18169,10 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>723266.0405644479</v>
+        <v>723181.0483288103</v>
       </c>
       <c r="R155" t="n">
-        <v>7544227.158111322</v>
+        <v>7544299.950535267</v>
       </c>
       <c r="S155" t="n">
         <v>10</v>
@@ -18241,10 +18241,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111474929</v>
+        <v>111474170</v>
       </c>
       <c r="B156" t="n">
-        <v>89423</v>
+        <v>95674</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -18253,25 +18253,25 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>5432</v>
+        <v>222741</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I156" t="inlineStr"/>
@@ -18282,10 +18282,10 @@
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>723266.0405644479</v>
+        <v>723316.8847442043</v>
       </c>
       <c r="R156" t="n">
-        <v>7544227.158111322</v>
+        <v>7544194.885817799</v>
       </c>
       <c r="S156" t="n">
         <v>10</v>
@@ -18354,10 +18354,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111494950</v>
+        <v>111493799</v>
       </c>
       <c r="B157" t="n">
-        <v>96346</v>
+        <v>78578</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -18370,33 +18370,24 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>620</v>
+        <v>6458</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="P157" t="inlineStr">
         <is>
@@ -18404,10 +18395,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>723181.0483288103</v>
+        <v>723316.8847442043</v>
       </c>
       <c r="R157" t="n">
-        <v>7544299.950535267</v>
+        <v>7544194.885817799</v>
       </c>
       <c r="S157" t="n">
         <v>10</v>
@@ -18452,11 +18443,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC157" t="inlineStr">
-        <is>
-          <t>9 blommor</t>
-        </is>
-      </c>
       <c r="AD157" t="b">
         <v>0</v>
       </c>
@@ -18465,6 +18451,16 @@
       </c>
       <c r="AG157" t="b">
         <v>0</v>
+      </c>
+      <c r="AM157" t="inlineStr">
+        <is>
+          <t>Sten/berg på land</t>
+        </is>
+      </c>
+      <c r="AO157" t="inlineStr">
+        <is>
+          <t>Stone/rock on land</t>
+        </is>
       </c>
       <c r="AT157" t="inlineStr"/>
       <c r="AW157" t="inlineStr">
@@ -18481,10 +18477,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>111494318</v>
+        <v>111494950</v>
       </c>
       <c r="B158" t="n">
-        <v>56543</v>
+        <v>96346</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -18497,21 +18493,21 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>103021</v>
+        <v>620</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -18519,26 +18515,22 @@
           <t>2</t>
         </is>
       </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>pulli</t>
-        </is>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="P158" t="inlineStr">
         <is>
-          <t>kurra (kurra), T lm</t>
+          <t>kurra, T lm</t>
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>723122.7605886162</v>
+        <v>723181.0483288103</v>
       </c>
       <c r="R158" t="n">
-        <v>7544278.282202527</v>
+        <v>7544299.950535267</v>
       </c>
       <c r="S158" t="n">
         <v>10</v>
@@ -18581,6 +18573,11 @@
       <c r="AB158" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC158" t="inlineStr">
+        <is>
+          <t>9 blommor</t>
         </is>
       </c>
       <c r="AD158" t="b">
@@ -18607,10 +18604,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111493799</v>
+        <v>111494318</v>
       </c>
       <c r="B159" t="n">
-        <v>78578</v>
+        <v>56543</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -18623,35 +18620,48 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>6458</v>
+        <v>103021</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>pulli</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>kurra, T lm</t>
+          <t>kurra (kurra), T lm</t>
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>723316.8847442043</v>
+        <v>723122.7605886162</v>
       </c>
       <c r="R159" t="n">
-        <v>7544194.885817799</v>
+        <v>7544278.282202527</v>
       </c>
       <c r="S159" t="n">
         <v>10</v>
@@ -18704,16 +18714,6 @@
       </c>
       <c r="AG159" t="b">
         <v>0</v>
-      </c>
-      <c r="AM159" t="inlineStr">
-        <is>
-          <t>Sten/berg på land</t>
-        </is>
-      </c>
-      <c r="AO159" t="inlineStr">
-        <is>
-          <t>Stone/rock on land</t>
-        </is>
       </c>
       <c r="AT159" t="inlineStr"/>
       <c r="AW159" t="inlineStr">

--- a/artfynd/A 10563-2022.xlsx
+++ b/artfynd/A 10563-2022.xlsx
@@ -17789,10 +17789,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111474891</v>
+        <v>111474396</v>
       </c>
       <c r="B152" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -17801,25 +17801,25 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I152" t="inlineStr"/>
@@ -17830,10 +17830,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>723266.0405644479</v>
+        <v>723316.8847442043</v>
       </c>
       <c r="R152" t="n">
-        <v>7544227.158111322</v>
+        <v>7544194.885817799</v>
       </c>
       <c r="S152" t="n">
         <v>10</v>
@@ -17902,10 +17902,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111474396</v>
+        <v>111474891</v>
       </c>
       <c r="B153" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -17914,25 +17914,25 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I153" t="inlineStr"/>
@@ -17943,10 +17943,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>723316.8847442043</v>
+        <v>723266.0405644479</v>
       </c>
       <c r="R153" t="n">
-        <v>7544194.885817799</v>
+        <v>7544227.158111322</v>
       </c>
       <c r="S153" t="n">
         <v>10</v>
@@ -18015,10 +18015,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111473568</v>
+        <v>111474170</v>
       </c>
       <c r="B154" t="n">
-        <v>78579</v>
+        <v>95674</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -18027,42 +18027,42 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>2081</v>
+        <v>222741</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="P154" t="inlineStr">
         <is>
-          <t>kurravaara ravinen, T lm</t>
+          <t>kurra, T lm</t>
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>723696.4827296173</v>
+        <v>723316.8847442043</v>
       </c>
       <c r="R154" t="n">
-        <v>7544132.847775052</v>
+        <v>7544194.885817799</v>
       </c>
       <c r="S154" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T154" t="inlineStr">
         <is>
@@ -18241,10 +18241,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111474170</v>
+        <v>111473568</v>
       </c>
       <c r="B156" t="n">
-        <v>95674</v>
+        <v>78579</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -18253,42 +18253,42 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>222741</v>
+        <v>2081</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="P156" t="inlineStr">
         <is>
-          <t>kurra, T lm</t>
+          <t>kurravaara ravinen, T lm</t>
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>723316.8847442043</v>
+        <v>723696.4827296173</v>
       </c>
       <c r="R156" t="n">
-        <v>7544194.885817799</v>
+        <v>7544132.847775052</v>
       </c>
       <c r="S156" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T156" t="inlineStr">
         <is>
@@ -18477,10 +18477,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>111494950</v>
+        <v>111494318</v>
       </c>
       <c r="B158" t="n">
-        <v>96346</v>
+        <v>56543</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -18493,21 +18493,21 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>620</v>
+        <v>103021</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -18515,22 +18515,26 @@
           <t>2</t>
         </is>
       </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>pulli</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="P158" t="inlineStr">
         <is>
-          <t>kurra, T lm</t>
+          <t>kurra (kurra), T lm</t>
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>723181.0483288103</v>
+        <v>723122.7605886162</v>
       </c>
       <c r="R158" t="n">
-        <v>7544299.950535267</v>
+        <v>7544278.282202527</v>
       </c>
       <c r="S158" t="n">
         <v>10</v>
@@ -18573,11 +18577,6 @@
       <c r="AB158" t="inlineStr">
         <is>
           <t>00:00</t>
-        </is>
-      </c>
-      <c r="AC158" t="inlineStr">
-        <is>
-          <t>9 blommor</t>
         </is>
       </c>
       <c r="AD158" t="b">
@@ -18604,10 +18603,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111494318</v>
+        <v>111494950</v>
       </c>
       <c r="B159" t="n">
-        <v>56543</v>
+        <v>96346</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -18620,21 +18619,21 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>103021</v>
+        <v>620</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I159" t="inlineStr">
@@ -18642,26 +18641,22 @@
           <t>2</t>
         </is>
       </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>pulli</t>
-        </is>
-      </c>
-      <c r="M159" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="P159" t="inlineStr">
         <is>
-          <t>kurra (kurra), T lm</t>
+          <t>kurra, T lm</t>
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>723122.7605886162</v>
+        <v>723181.0483288103</v>
       </c>
       <c r="R159" t="n">
-        <v>7544278.282202527</v>
+        <v>7544299.950535267</v>
       </c>
       <c r="S159" t="n">
         <v>10</v>
@@ -18704,6 +18699,11 @@
       <c r="AB159" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC159" t="inlineStr">
+        <is>
+          <t>9 blommor</t>
         </is>
       </c>
       <c r="AD159" t="b">

--- a/artfynd/A 10563-2022.xlsx
+++ b/artfynd/A 10563-2022.xlsx
@@ -17676,10 +17676,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111474929</v>
+        <v>111475500</v>
       </c>
       <c r="B151" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -17688,25 +17688,25 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -17717,10 +17717,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>723266.0405644479</v>
+        <v>723181.0483288103</v>
       </c>
       <c r="R151" t="n">
-        <v>7544227.158111322</v>
+        <v>7544299.950535267</v>
       </c>
       <c r="S151" t="n">
         <v>10</v>
@@ -17789,7 +17789,7 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111474396</v>
+        <v>111474929</v>
       </c>
       <c r="B152" t="n">
         <v>89423</v>
@@ -17830,10 +17830,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>723316.8847442043</v>
+        <v>723266.0405644479</v>
       </c>
       <c r="R152" t="n">
-        <v>7544194.885817799</v>
+        <v>7544227.158111322</v>
       </c>
       <c r="S152" t="n">
         <v>10</v>
@@ -18015,10 +18015,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111474170</v>
+        <v>111474396</v>
       </c>
       <c r="B154" t="n">
-        <v>95674</v>
+        <v>89423</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -18027,25 +18027,25 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>222741</v>
+        <v>5432</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I154" t="inlineStr"/>
@@ -18128,10 +18128,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>111475500</v>
+        <v>111474170</v>
       </c>
       <c r="B155" t="n">
-        <v>90087</v>
+        <v>95674</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -18144,21 +18144,21 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>3298</v>
+        <v>222741</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I155" t="inlineStr"/>
@@ -18169,10 +18169,10 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>723181.0483288103</v>
+        <v>723316.8847442043</v>
       </c>
       <c r="R155" t="n">
-        <v>7544299.950535267</v>
+        <v>7544194.885817799</v>
       </c>
       <c r="S155" t="n">
         <v>10</v>
@@ -18354,10 +18354,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111493799</v>
+        <v>111494950</v>
       </c>
       <c r="B157" t="n">
-        <v>78578</v>
+        <v>96346</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -18370,24 +18370,33 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>6458</v>
+        <v>620</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="P157" t="inlineStr">
         <is>
@@ -18395,10 +18404,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>723316.8847442043</v>
+        <v>723181.0483288103</v>
       </c>
       <c r="R157" t="n">
-        <v>7544194.885817799</v>
+        <v>7544299.950535267</v>
       </c>
       <c r="S157" t="n">
         <v>10</v>
@@ -18443,6 +18452,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC157" t="inlineStr">
+        <is>
+          <t>9 blommor</t>
+        </is>
+      </c>
       <c r="AD157" t="b">
         <v>0</v>
       </c>
@@ -18451,16 +18465,6 @@
       </c>
       <c r="AG157" t="b">
         <v>0</v>
-      </c>
-      <c r="AM157" t="inlineStr">
-        <is>
-          <t>Sten/berg på land</t>
-        </is>
-      </c>
-      <c r="AO157" t="inlineStr">
-        <is>
-          <t>Stone/rock on land</t>
-        </is>
       </c>
       <c r="AT157" t="inlineStr"/>
       <c r="AW157" t="inlineStr">
@@ -18603,10 +18607,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111494950</v>
+        <v>111493799</v>
       </c>
       <c r="B159" t="n">
-        <v>96346</v>
+        <v>78578</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -18619,33 +18623,24 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>620</v>
+        <v>6458</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="P159" t="inlineStr">
         <is>
@@ -18653,10 +18648,10 @@
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>723181.0483288103</v>
+        <v>723316.8847442043</v>
       </c>
       <c r="R159" t="n">
-        <v>7544299.950535267</v>
+        <v>7544194.885817799</v>
       </c>
       <c r="S159" t="n">
         <v>10</v>
@@ -18701,11 +18696,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC159" t="inlineStr">
-        <is>
-          <t>9 blommor</t>
-        </is>
-      </c>
       <c r="AD159" t="b">
         <v>0</v>
       </c>
@@ -18714,6 +18704,16 @@
       </c>
       <c r="AG159" t="b">
         <v>0</v>
+      </c>
+      <c r="AM159" t="inlineStr">
+        <is>
+          <t>Sten/berg på land</t>
+        </is>
+      </c>
+      <c r="AO159" t="inlineStr">
+        <is>
+          <t>Stone/rock on land</t>
+        </is>
       </c>
       <c r="AT159" t="inlineStr"/>
       <c r="AW159" t="inlineStr">

--- a/artfynd/A 10563-2022.xlsx
+++ b/artfynd/A 10563-2022.xlsx
@@ -17676,10 +17676,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111475500</v>
+        <v>111474396</v>
       </c>
       <c r="B151" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -17688,25 +17688,25 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -17717,10 +17717,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>723181.0483288103</v>
+        <v>723316.8847442043</v>
       </c>
       <c r="R151" t="n">
-        <v>7544299.950535267</v>
+        <v>7544194.885817799</v>
       </c>
       <c r="S151" t="n">
         <v>10</v>
@@ -17789,10 +17789,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111474929</v>
+        <v>111474170</v>
       </c>
       <c r="B152" t="n">
-        <v>89423</v>
+        <v>95674</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -17801,25 +17801,25 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>5432</v>
+        <v>222741</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I152" t="inlineStr"/>
@@ -17830,10 +17830,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>723266.0405644479</v>
+        <v>723316.8847442043</v>
       </c>
       <c r="R152" t="n">
-        <v>7544227.158111322</v>
+        <v>7544194.885817799</v>
       </c>
       <c r="S152" t="n">
         <v>10</v>
@@ -18015,10 +18015,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111474396</v>
+        <v>111475500</v>
       </c>
       <c r="B154" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -18027,25 +18027,25 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I154" t="inlineStr"/>
@@ -18056,10 +18056,10 @@
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>723316.8847442043</v>
+        <v>723181.0483288103</v>
       </c>
       <c r="R154" t="n">
-        <v>7544194.885817799</v>
+        <v>7544299.950535267</v>
       </c>
       <c r="S154" t="n">
         <v>10</v>
@@ -18128,10 +18128,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>111474170</v>
+        <v>111473568</v>
       </c>
       <c r="B155" t="n">
-        <v>95674</v>
+        <v>78579</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -18140,42 +18140,42 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>222741</v>
+        <v>2081</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="P155" t="inlineStr">
         <is>
-          <t>kurra, T lm</t>
+          <t>kurravaara ravinen, T lm</t>
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>723316.8847442043</v>
+        <v>723696.4827296173</v>
       </c>
       <c r="R155" t="n">
-        <v>7544194.885817799</v>
+        <v>7544132.847775052</v>
       </c>
       <c r="S155" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T155" t="inlineStr">
         <is>
@@ -18241,10 +18241,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111473568</v>
+        <v>111474929</v>
       </c>
       <c r="B156" t="n">
-        <v>78579</v>
+        <v>89423</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -18257,38 +18257,38 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>2081</v>
+        <v>5432</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="P156" t="inlineStr">
         <is>
-          <t>kurravaara ravinen, T lm</t>
+          <t>kurra, T lm</t>
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>723696.4827296173</v>
+        <v>723266.0405644479</v>
       </c>
       <c r="R156" t="n">
-        <v>7544132.847775052</v>
+        <v>7544227.158111322</v>
       </c>
       <c r="S156" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T156" t="inlineStr">
         <is>

--- a/artfynd/A 10563-2022.xlsx
+++ b/artfynd/A 10563-2022.xlsx
@@ -17676,10 +17676,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111474396</v>
+        <v>111474170</v>
       </c>
       <c r="B151" t="n">
-        <v>89423</v>
+        <v>95674</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -17688,25 +17688,25 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E151" t="n">
-        <v>5432</v>
+        <v>222741</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -17789,10 +17789,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111474170</v>
+        <v>111475500</v>
       </c>
       <c r="B152" t="n">
-        <v>95674</v>
+        <v>90087</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -17805,21 +17805,21 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>222741</v>
+        <v>3298</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I152" t="inlineStr"/>
@@ -17830,10 +17830,10 @@
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>723316.8847442043</v>
+        <v>723181.0483288103</v>
       </c>
       <c r="R152" t="n">
-        <v>7544194.885817799</v>
+        <v>7544299.950535267</v>
       </c>
       <c r="S152" t="n">
         <v>10</v>
@@ -17902,10 +17902,10 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111474891</v>
+        <v>111474396</v>
       </c>
       <c r="B153" t="n">
-        <v>90087</v>
+        <v>89423</v>
       </c>
       <c r="C153" t="inlineStr">
         <is>
@@ -17914,25 +17914,25 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E153" t="n">
-        <v>3298</v>
+        <v>5432</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I153" t="inlineStr"/>
@@ -17943,10 +17943,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>723266.0405644479</v>
+        <v>723316.8847442043</v>
       </c>
       <c r="R153" t="n">
-        <v>7544227.158111322</v>
+        <v>7544194.885817799</v>
       </c>
       <c r="S153" t="n">
         <v>10</v>
@@ -18015,10 +18015,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111475500</v>
+        <v>111473568</v>
       </c>
       <c r="B154" t="n">
-        <v>90087</v>
+        <v>78579</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -18027,42 +18027,42 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>3298</v>
+        <v>2081</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="P154" t="inlineStr">
         <is>
-          <t>kurra, T lm</t>
+          <t>kurravaara ravinen, T lm</t>
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>723181.0483288103</v>
+        <v>723696.4827296173</v>
       </c>
       <c r="R154" t="n">
-        <v>7544299.950535267</v>
+        <v>7544132.847775052</v>
       </c>
       <c r="S154" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T154" t="inlineStr">
         <is>
@@ -18128,10 +18128,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>111473568</v>
+        <v>111474929</v>
       </c>
       <c r="B155" t="n">
-        <v>78579</v>
+        <v>89423</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -18144,38 +18144,38 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>2081</v>
+        <v>5432</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="P155" t="inlineStr">
         <is>
-          <t>kurravaara ravinen, T lm</t>
+          <t>kurra, T lm</t>
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>723696.4827296173</v>
+        <v>723266.0405644479</v>
       </c>
       <c r="R155" t="n">
-        <v>7544132.847775052</v>
+        <v>7544227.158111322</v>
       </c>
       <c r="S155" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T155" t="inlineStr">
         <is>
@@ -18241,10 +18241,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111474929</v>
+        <v>111474891</v>
       </c>
       <c r="B156" t="n">
-        <v>89423</v>
+        <v>90087</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -18253,25 +18253,25 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>5432</v>
+        <v>3298</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I156" t="inlineStr"/>
@@ -18354,10 +18354,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111494950</v>
+        <v>111493799</v>
       </c>
       <c r="B157" t="n">
-        <v>96346</v>
+        <v>78578</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -18370,33 +18370,24 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>620</v>
+        <v>6458</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="P157" t="inlineStr">
         <is>
@@ -18404,10 +18395,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>723181.0483288103</v>
+        <v>723316.8847442043</v>
       </c>
       <c r="R157" t="n">
-        <v>7544299.950535267</v>
+        <v>7544194.885817799</v>
       </c>
       <c r="S157" t="n">
         <v>10</v>
@@ -18452,11 +18443,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC157" t="inlineStr">
-        <is>
-          <t>9 blommor</t>
-        </is>
-      </c>
       <c r="AD157" t="b">
         <v>0</v>
       </c>
@@ -18465,6 +18451,16 @@
       </c>
       <c r="AG157" t="b">
         <v>0</v>
+      </c>
+      <c r="AM157" t="inlineStr">
+        <is>
+          <t>Sten/berg på land</t>
+        </is>
+      </c>
+      <c r="AO157" t="inlineStr">
+        <is>
+          <t>Stone/rock on land</t>
+        </is>
       </c>
       <c r="AT157" t="inlineStr"/>
       <c r="AW157" t="inlineStr">
@@ -18481,10 +18477,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>111494318</v>
+        <v>111494950</v>
       </c>
       <c r="B158" t="n">
-        <v>56543</v>
+        <v>96346</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -18497,21 +18493,21 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>103021</v>
+        <v>620</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I158" t="inlineStr">
@@ -18519,26 +18515,22 @@
           <t>2</t>
         </is>
       </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>pulli</t>
-        </is>
-      </c>
-      <c r="M158" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="P158" t="inlineStr">
         <is>
-          <t>kurra (kurra), T lm</t>
+          <t>kurra, T lm</t>
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>723122.7605886162</v>
+        <v>723181.0483288103</v>
       </c>
       <c r="R158" t="n">
-        <v>7544278.282202527</v>
+        <v>7544299.950535267</v>
       </c>
       <c r="S158" t="n">
         <v>10</v>
@@ -18581,6 +18573,11 @@
       <c r="AB158" t="inlineStr">
         <is>
           <t>00:00</t>
+        </is>
+      </c>
+      <c r="AC158" t="inlineStr">
+        <is>
+          <t>9 blommor</t>
         </is>
       </c>
       <c r="AD158" t="b">
@@ -18607,10 +18604,10 @@
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>111493799</v>
+        <v>111494318</v>
       </c>
       <c r="B159" t="n">
-        <v>78578</v>
+        <v>56543</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -18623,35 +18620,48 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>6458</v>
+        <v>103021</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>pulli</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
       <c r="P159" t="inlineStr">
         <is>
-          <t>kurra, T lm</t>
+          <t>kurra (kurra), T lm</t>
         </is>
       </c>
       <c r="Q159" t="n">
-        <v>723316.8847442043</v>
+        <v>723122.7605886162</v>
       </c>
       <c r="R159" t="n">
-        <v>7544194.885817799</v>
+        <v>7544278.282202527</v>
       </c>
       <c r="S159" t="n">
         <v>10</v>
@@ -18704,16 +18714,6 @@
       </c>
       <c r="AG159" t="b">
         <v>0</v>
-      </c>
-      <c r="AM159" t="inlineStr">
-        <is>
-          <t>Sten/berg på land</t>
-        </is>
-      </c>
-      <c r="AO159" t="inlineStr">
-        <is>
-          <t>Stone/rock on land</t>
-        </is>
       </c>
       <c r="AT159" t="inlineStr"/>
       <c r="AW159" t="inlineStr">

--- a/artfynd/A 10563-2022.xlsx
+++ b/artfynd/A 10563-2022.xlsx
@@ -17676,10 +17676,10 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111474170</v>
+        <v>111474891</v>
       </c>
       <c r="B151" t="n">
-        <v>95674</v>
+        <v>90087</v>
       </c>
       <c r="C151" t="inlineStr">
         <is>
@@ -17692,21 +17692,21 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>222741</v>
+        <v>3298</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I151" t="inlineStr"/>
@@ -17717,10 +17717,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>723316.8847442043</v>
+        <v>723266.0405644479</v>
       </c>
       <c r="R151" t="n">
-        <v>7544194.885817799</v>
+        <v>7544227.158111322</v>
       </c>
       <c r="S151" t="n">
         <v>10</v>
@@ -17902,7 +17902,7 @@
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>111474396</v>
+        <v>111474929</v>
       </c>
       <c r="B153" t="n">
         <v>89423</v>
@@ -17943,10 +17943,10 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>723316.8847442043</v>
+        <v>723266.0405644479</v>
       </c>
       <c r="R153" t="n">
-        <v>7544194.885817799</v>
+        <v>7544227.158111322</v>
       </c>
       <c r="S153" t="n">
         <v>10</v>
@@ -18015,10 +18015,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111473568</v>
+        <v>111474396</v>
       </c>
       <c r="B154" t="n">
-        <v>78579</v>
+        <v>89423</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -18031,38 +18031,38 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>2081</v>
+        <v>5432</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="P154" t="inlineStr">
         <is>
-          <t>kurravaara ravinen, T lm</t>
+          <t>kurra, T lm</t>
         </is>
       </c>
       <c r="Q154" t="n">
-        <v>723696.4827296173</v>
+        <v>723316.8847442043</v>
       </c>
       <c r="R154" t="n">
-        <v>7544132.847775052</v>
+        <v>7544194.885817799</v>
       </c>
       <c r="S154" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T154" t="inlineStr">
         <is>
@@ -18128,10 +18128,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>111474929</v>
+        <v>111474170</v>
       </c>
       <c r="B155" t="n">
-        <v>89423</v>
+        <v>95674</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -18140,25 +18140,25 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>5432</v>
+        <v>222741</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I155" t="inlineStr"/>
@@ -18169,10 +18169,10 @@
         </is>
       </c>
       <c r="Q155" t="n">
-        <v>723266.0405644479</v>
+        <v>723316.8847442043</v>
       </c>
       <c r="R155" t="n">
-        <v>7544227.158111322</v>
+        <v>7544194.885817799</v>
       </c>
       <c r="S155" t="n">
         <v>10</v>
@@ -18241,10 +18241,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111474891</v>
+        <v>111473568</v>
       </c>
       <c r="B156" t="n">
-        <v>90087</v>
+        <v>78579</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -18253,42 +18253,42 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>3298</v>
+        <v>2081</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="P156" t="inlineStr">
         <is>
-          <t>kurra, T lm</t>
+          <t>kurravaara ravinen, T lm</t>
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>723266.0405644479</v>
+        <v>723696.4827296173</v>
       </c>
       <c r="R156" t="n">
-        <v>7544227.158111322</v>
+        <v>7544132.847775052</v>
       </c>
       <c r="S156" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T156" t="inlineStr">
         <is>

--- a/artfynd/A 10563-2022.xlsx
+++ b/artfynd/A 10563-2022.xlsx
@@ -17676,7 +17676,7 @@
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>111474891</v>
+        <v>111475500</v>
       </c>
       <c r="B151" t="n">
         <v>90087</v>
@@ -17717,10 +17717,10 @@
         </is>
       </c>
       <c r="Q151" t="n">
-        <v>723266.0405644479</v>
+        <v>723181.0483288103</v>
       </c>
       <c r="R151" t="n">
-        <v>7544227.158111322</v>
+        <v>7544299.950535267</v>
       </c>
       <c r="S151" t="n">
         <v>10</v>
@@ -17789,10 +17789,10 @@
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>111475500</v>
+        <v>111473568</v>
       </c>
       <c r="B152" t="n">
-        <v>90087</v>
+        <v>78579</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -17801,42 +17801,42 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E152" t="n">
-        <v>3298</v>
+        <v>2081</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Trådticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Climacocystis borealis</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>(Fr.) Kotl. &amp; Pouzar</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="P152" t="inlineStr">
         <is>
-          <t>kurra, T lm</t>
+          <t>kurravaara ravinen, T lm</t>
         </is>
       </c>
       <c r="Q152" t="n">
-        <v>723181.0483288103</v>
+        <v>723696.4827296173</v>
       </c>
       <c r="R152" t="n">
-        <v>7544299.950535267</v>
+        <v>7544132.847775052</v>
       </c>
       <c r="S152" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T152" t="inlineStr">
         <is>
@@ -18015,10 +18015,10 @@
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>111474396</v>
+        <v>111474170</v>
       </c>
       <c r="B154" t="n">
-        <v>89423</v>
+        <v>95674</v>
       </c>
       <c r="C154" t="inlineStr">
         <is>
@@ -18027,25 +18027,25 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E154" t="n">
-        <v>5432</v>
+        <v>222741</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Granticka</t>
+          <t>Finbräken</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Porodaedalea chrysoloma</t>
+          <t>Cystopteris montana</t>
         </is>
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>(Fr.) Fiasson &amp; Niemelä</t>
+          <t>(Lam.) Desv.</t>
         </is>
       </c>
       <c r="I154" t="inlineStr"/>
@@ -18128,10 +18128,10 @@
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>111474170</v>
+        <v>111474396</v>
       </c>
       <c r="B155" t="n">
-        <v>95674</v>
+        <v>89423</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -18140,25 +18140,25 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E155" t="n">
-        <v>222741</v>
+        <v>5432</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Finbräken</t>
+          <t>Granticka</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Cystopteris montana</t>
+          <t>Porodaedalea chrysoloma</t>
         </is>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>(Lam.) Desv.</t>
+          <t>(Fr.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I155" t="inlineStr"/>
@@ -18241,10 +18241,10 @@
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>111473568</v>
+        <v>111474891</v>
       </c>
       <c r="B156" t="n">
-        <v>78579</v>
+        <v>90087</v>
       </c>
       <c r="C156" t="inlineStr">
         <is>
@@ -18253,42 +18253,42 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E156" t="n">
-        <v>2081</v>
+        <v>3298</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Trådticka</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Climacocystis borealis</t>
         </is>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="P156" t="inlineStr">
         <is>
-          <t>kurravaara ravinen, T lm</t>
+          <t>kurra, T lm</t>
         </is>
       </c>
       <c r="Q156" t="n">
-        <v>723696.4827296173</v>
+        <v>723266.0405644479</v>
       </c>
       <c r="R156" t="n">
-        <v>7544132.847775052</v>
+        <v>7544227.158111322</v>
       </c>
       <c r="S156" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T156" t="inlineStr">
         <is>
@@ -18354,10 +18354,10 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>111493799</v>
+        <v>111494950</v>
       </c>
       <c r="B157" t="n">
-        <v>78578</v>
+        <v>96346</v>
       </c>
       <c r="C157" t="inlineStr">
         <is>
@@ -18370,24 +18370,33 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>6458</v>
+        <v>620</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Skogsfru</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Epipogium aphyllum</t>
         </is>
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
-        </is>
-      </c>
-      <c r="I157" t="inlineStr"/>
+          <t>Sw.</t>
+        </is>
+      </c>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J157" t="inlineStr">
+        <is>
+          <t>stjälkar/strån/skott</t>
+        </is>
+      </c>
       <c r="K157" t="inlineStr"/>
       <c r="P157" t="inlineStr">
         <is>
@@ -18395,10 +18404,10 @@
         </is>
       </c>
       <c r="Q157" t="n">
-        <v>723316.8847442043</v>
+        <v>723181.0483288103</v>
       </c>
       <c r="R157" t="n">
-        <v>7544194.885817799</v>
+        <v>7544299.950535267</v>
       </c>
       <c r="S157" t="n">
         <v>10</v>
@@ -18443,6 +18452,11 @@
           <t>00:00</t>
         </is>
       </c>
+      <c r="AC157" t="inlineStr">
+        <is>
+          <t>9 blommor</t>
+        </is>
+      </c>
       <c r="AD157" t="b">
         <v>0</v>
       </c>
@@ -18451,16 +18465,6 @@
       </c>
       <c r="AG157" t="b">
         <v>0</v>
-      </c>
-      <c r="AM157" t="inlineStr">
-        <is>
-          <t>Sten/berg på land</t>
-        </is>
-      </c>
-      <c r="AO157" t="inlineStr">
-        <is>
-          <t>Stone/rock on land</t>
-        </is>
       </c>
       <c r="AT157" t="inlineStr"/>
       <c r="AW157" t="inlineStr">
@@ -18477,10 +18481,10 @@
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>111494950</v>
+        <v>111493799</v>
       </c>
       <c r="B158" t="n">
-        <v>96346</v>
+        <v>78578</v>
       </c>
       <c r="C158" t="inlineStr">
         <is>
@@ -18493,33 +18497,24 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>620</v>
+        <v>6458</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Skogsfru</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Epipogium aphyllum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Sw.</t>
-        </is>
-      </c>
-      <c r="I158" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>stjälkar/strån/skott</t>
-        </is>
-      </c>
+          <t>(L.) Hoffm.</t>
+        </is>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="P158" t="inlineStr">
         <is>
@@ -18527,10 +18522,10 @@
         </is>
       </c>
       <c r="Q158" t="n">
-        <v>723181.0483288103</v>
+        <v>723316.8847442043</v>
       </c>
       <c r="R158" t="n">
-        <v>7544299.950535267</v>
+        <v>7544194.885817799</v>
       </c>
       <c r="S158" t="n">
         <v>10</v>
@@ -18575,11 +18570,6 @@
           <t>00:00</t>
         </is>
       </c>
-      <c r="AC158" t="inlineStr">
-        <is>
-          <t>9 blommor</t>
-        </is>
-      </c>
       <c r="AD158" t="b">
         <v>0</v>
       </c>
@@ -18588,6 +18578,16 @@
       </c>
       <c r="AG158" t="b">
         <v>0</v>
+      </c>
+      <c r="AM158" t="inlineStr">
+        <is>
+          <t>Sten/berg på land</t>
+        </is>
+      </c>
+      <c r="AO158" t="inlineStr">
+        <is>
+          <t>Stone/rock on land</t>
+        </is>
       </c>
       <c r="AT158" t="inlineStr"/>
       <c r="AW158" t="inlineStr">
